--- a/epgprogramingest/epg.xlsx
+++ b/epgprogramingest/epg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\servisler\Prod\epgprogramingest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\playground\epgprogramingest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6780AEC4-5570-4415-A4A3-7DBBBD6E1E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4BF33D-40B6-4E0D-B121-1783323A22CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,246 +25,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
-  <si>
-    <t>87mahkum20211230421123525</t>
-  </si>
-  <si>
-    <t>87mahkum20220104909638482</t>
-  </si>
-  <si>
-    <t>87mahkum20220214720957170</t>
-  </si>
-  <si>
-    <t>87mahkum20211221930144189</t>
-  </si>
-  <si>
-    <t>87mahkum20211218539517076</t>
-  </si>
-  <si>
-    <t>87mahkum20220102196664887</t>
-  </si>
-  <si>
-    <t>87mahkum20220306375998580</t>
-  </si>
-  <si>
-    <t>87mahkum20211223194063775</t>
-  </si>
-  <si>
-    <t>87mahkum2022032382328314</t>
-  </si>
-  <si>
-    <t>87mahkum20220319534064973</t>
-  </si>
-  <si>
-    <t>87mahkum20220113793474623</t>
-  </si>
-  <si>
-    <t>87mahkum20220213999865911</t>
-  </si>
-  <si>
-    <t>87mahkum20220109963130923</t>
-  </si>
-  <si>
-    <t>87mahkum20220206357119835</t>
-  </si>
-  <si>
-    <t>87mahkum20220221902245054</t>
-  </si>
-  <si>
-    <t>87mahkum20220407456632227</t>
-  </si>
-  <si>
-    <t>87mahkum20220312173017540</t>
-  </si>
-  <si>
-    <t>87mahkum20220326110614214</t>
-  </si>
-  <si>
-    <t>87mahkum2021122662966120</t>
-  </si>
-  <si>
-    <t>87mahkum20220319511773821</t>
-  </si>
-  <si>
-    <t>87mahkum20220203248494861</t>
-  </si>
-  <si>
-    <t>87mahkum20220127526570165</t>
-  </si>
-  <si>
-    <t>87mahkum20220101627290614</t>
-  </si>
-  <si>
-    <t>87mahkum2022022766345946</t>
-  </si>
-  <si>
-    <t>87mahkum20220224612216948</t>
-  </si>
-  <si>
-    <t>87mahkum20220105922428248</t>
-  </si>
-  <si>
-    <t>87mahkum20220226914501000</t>
-  </si>
-  <si>
-    <t>87mahkum20220309548868312</t>
-  </si>
-  <si>
-    <t>87mahkum20211226690203778</t>
-  </si>
-  <si>
-    <t>87mahkum20220402129728634</t>
-  </si>
-  <si>
-    <t>87mahkum20220220540970099</t>
-  </si>
-  <si>
-    <t>87mahkum20220119769563196</t>
-  </si>
-  <si>
-    <t>87mahkum20211223169410407</t>
-  </si>
-  <si>
-    <t>87mahkum20220402721045087</t>
-  </si>
-  <si>
-    <t>87mahkum20211219329507083</t>
-  </si>
-  <si>
-    <t>87mahkum20220316792246911</t>
-  </si>
-  <si>
-    <t>87mahkum20211219179702534</t>
-  </si>
-  <si>
-    <t>87mahkum2021121443832023</t>
-  </si>
-  <si>
-    <t>87mahkum20220106694825217</t>
-  </si>
-  <si>
-    <t>87mahkum20211214915986816</t>
-  </si>
-  <si>
-    <t>87mahkum20220303382095840</t>
-  </si>
-  <si>
-    <t>87mahkum20220305359113163</t>
-  </si>
-  <si>
-    <t>87mahkum20220120686843466</t>
-  </si>
-  <si>
-    <t>87mahkum20220210497221448</t>
-  </si>
-  <si>
-    <t>87mahkum20220106374782289</t>
-  </si>
-  <si>
-    <t>87mahkum20220217802142169</t>
-  </si>
-  <si>
-    <t>87mahkum20211216388845487</t>
-  </si>
-  <si>
-    <t>87mahkum20220326896707946</t>
-  </si>
-  <si>
-    <t>87mahkum20211216670017464</t>
-  </si>
-  <si>
-    <t>87mahkum20211226803432530</t>
-  </si>
-  <si>
-    <t>87mahkum20220317560781990</t>
-  </si>
-  <si>
-    <t>87mahkum20211215535696499</t>
-  </si>
-  <si>
-    <t>87mahkum20220130637619119</t>
-  </si>
-  <si>
-    <t>87mahkum20220216740805987</t>
-  </si>
-  <si>
-    <t>87mahkum20220324797142864</t>
-  </si>
-  <si>
-    <t>87mahkum20220117828116355</t>
-  </si>
-  <si>
-    <t>87mahkum20220310594503705</t>
-  </si>
-  <si>
-    <t>87mahkum20220123533945169</t>
-  </si>
-  <si>
-    <t>87mahkum2022012029082344</t>
-  </si>
-  <si>
-    <t>87mahkum20220127157104915</t>
-  </si>
-  <si>
-    <t>87mahkum20220116303045623</t>
-  </si>
-  <si>
-    <t>87mahkum20220110930523617</t>
-  </si>
-  <si>
-    <t>87mahkum20220303386625042</t>
-  </si>
-  <si>
-    <t>87mahkum20211229392676716</t>
-  </si>
-  <si>
-    <t>87mahkum20220101450050483</t>
-  </si>
-  <si>
-    <t>87mahkum20220203323049265</t>
-  </si>
-  <si>
-    <t>87mahkum20220102938807588</t>
-  </si>
-  <si>
-    <t>87mahkum20220219799490985</t>
-  </si>
-  <si>
-    <t>87mahkum20220210342588795</t>
-  </si>
-  <si>
-    <t>87mahkum20211219250203117</t>
-  </si>
-  <si>
-    <t>87mahkum20220224607758103</t>
-  </si>
-  <si>
-    <t>87mahkum20220402927798790</t>
-  </si>
-  <si>
-    <t>87mahkum20220410478608481</t>
-  </si>
-  <si>
-    <t>87mahkum20220331729835722</t>
-  </si>
-  <si>
-    <t>87mahkum20220310278903994</t>
-  </si>
-  <si>
-    <t>87mahkum20220103430209280</t>
-  </si>
-  <si>
-    <t>87mahkum20220406780352171</t>
-  </si>
-  <si>
-    <t>87mahkum20220414195455057</t>
-  </si>
-  <si>
-    <t>87mahkum20220409323275980</t>
-  </si>
-  <si>
-    <t>87mahkum202204141954550571</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+  <si>
+    <t>1827alvinnnandthechipmunks2022042974790848</t>
+  </si>
+  <si>
+    <t>1827thecasagrandes20220428874698615</t>
+  </si>
+  <si>
+    <t>1827riseoftheteenagemutantnin20220429151400478</t>
+  </si>
+  <si>
+    <t>1827spongebobsquarepants20220428567144389</t>
+  </si>
+  <si>
+    <t>1827spongebobsquarepants20220428649709649</t>
+  </si>
+  <si>
+    <t>1827sanjayandcraig20220429405405712</t>
+  </si>
+  <si>
+    <t>1827avatarthelastairbender20220428310017228</t>
+  </si>
+  <si>
+    <t>1827theloudhouse20220429194765886</t>
+  </si>
+  <si>
+    <t>1827thecasagrandes20220429653631703</t>
+  </si>
+  <si>
+    <t>1827alvinnnandthechipmunks20220429936198168</t>
+  </si>
+  <si>
+    <t>1827thecasagrandes20220429586859464</t>
+  </si>
+  <si>
+    <t>1827theloudhouse20220428472228859</t>
+  </si>
+  <si>
+    <t>1827thecasagrandes20220429186753926</t>
+  </si>
+  <si>
+    <t>1827alvinnnandthechipmunks20220429104648740</t>
+  </si>
+  <si>
+    <t>1827spongebobsquarepants20220429386852886</t>
+  </si>
+  <si>
+    <t>1827thecasagrandes20220429263788286</t>
+  </si>
+  <si>
+    <t>1827sanjayandcraig20220429606213879</t>
+  </si>
+  <si>
+    <t>1827fanboyandchumchum20220429166357565</t>
+  </si>
+  <si>
+    <t>1827middlemostpost20220429349071307</t>
+  </si>
+  <si>
+    <t>1827alvinnnandthechipmunks20220429767889116</t>
+  </si>
+  <si>
+    <t>1827kampkoralspongebobsundery20220429223804633</t>
+  </si>
+  <si>
+    <t>1827thecasagrandes20220429841822165</t>
+  </si>
+  <si>
+    <t>1827rainbowbutterflyunicornki20220429610441336</t>
+  </si>
+  <si>
+    <t>1827spongebobsquarepants20220429467698787</t>
+  </si>
+  <si>
+    <t>1827rainbowbutterflyunicornki20220429430176621</t>
+  </si>
+  <si>
+    <t>1827spongebobsquarepants20220428205146506</t>
+  </si>
+  <si>
+    <t>1827thecasagrandes20220203293072156</t>
+  </si>
+  <si>
+    <t>1827alvinnnandthechipmunks20220429691807004</t>
+  </si>
+  <si>
+    <t>1827thecasagrandes20220203576987129</t>
+  </si>
+  <si>
+    <t>1827theloudhouse20220203824110225</t>
+  </si>
+  <si>
+    <t>1827theloudhouse2022020396521574</t>
+  </si>
+  <si>
+    <t>1827spongebobsquarepants20220203810091014</t>
+  </si>
+  <si>
+    <t>1827alvinnnandthechipmunks20220203685628232</t>
+  </si>
+  <si>
+    <t>1827spongebobsquarepants20220203373252412</t>
+  </si>
+  <si>
+    <t>1827theloudhouse20220203759633445</t>
+  </si>
+  <si>
+    <t>1827alvinnnandthechipmunks20220203620984019</t>
+  </si>
+  <si>
+    <t>1827spongebobsquarepants20220203745214242</t>
+  </si>
+  <si>
+    <t>1827avatarthelastairbender20220203560690817</t>
+  </si>
+  <si>
+    <t>1827spongebobsquarepants20220203574405054</t>
+  </si>
+  <si>
+    <t>1827spongebobsquarepants20220203641904251</t>
+  </si>
+  <si>
+    <t>1827avatarthelastairbender20220203727548617</t>
+  </si>
+  <si>
+    <t>1827alvinnnandthechipmunks20220203386243387</t>
+  </si>
+  <si>
+    <t>1827spongebobsquarepants20220203177412230</t>
+  </si>
+  <si>
+    <t>1827theloudhouse20220203735373051</t>
   </si>
 </sst>
 </file>
@@ -583,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A80"/>
+  <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A80"/>
+      <selection sqref="A1:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,186 +706,6 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/epgprogramingest/epg.xlsx
+++ b/epgprogramingest/epg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\playground\epgprogramingest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4BF33D-40B6-4E0D-B121-1783323A22CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D5E2F2-794D-4026-8A99-D4A16E0480C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,138 +25,648 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
-  <si>
-    <t>1827alvinnnandthechipmunks2022042974790848</t>
-  </si>
-  <si>
-    <t>1827thecasagrandes20220428874698615</t>
-  </si>
-  <si>
-    <t>1827riseoftheteenagemutantnin20220429151400478</t>
-  </si>
-  <si>
-    <t>1827spongebobsquarepants20220428567144389</t>
-  </si>
-  <si>
-    <t>1827spongebobsquarepants20220428649709649</t>
-  </si>
-  <si>
-    <t>1827sanjayandcraig20220429405405712</t>
-  </si>
-  <si>
-    <t>1827avatarthelastairbender20220428310017228</t>
-  </si>
-  <si>
-    <t>1827theloudhouse20220429194765886</t>
-  </si>
-  <si>
-    <t>1827thecasagrandes20220429653631703</t>
-  </si>
-  <si>
-    <t>1827alvinnnandthechipmunks20220429936198168</t>
-  </si>
-  <si>
-    <t>1827thecasagrandes20220429586859464</t>
-  </si>
-  <si>
-    <t>1827theloudhouse20220428472228859</t>
-  </si>
-  <si>
-    <t>1827thecasagrandes20220429186753926</t>
-  </si>
-  <si>
-    <t>1827alvinnnandthechipmunks20220429104648740</t>
-  </si>
-  <si>
-    <t>1827spongebobsquarepants20220429386852886</t>
-  </si>
-  <si>
-    <t>1827thecasagrandes20220429263788286</t>
-  </si>
-  <si>
-    <t>1827sanjayandcraig20220429606213879</t>
-  </si>
-  <si>
-    <t>1827fanboyandchumchum20220429166357565</t>
-  </si>
-  <si>
-    <t>1827middlemostpost20220429349071307</t>
-  </si>
-  <si>
-    <t>1827alvinnnandthechipmunks20220429767889116</t>
-  </si>
-  <si>
-    <t>1827kampkoralspongebobsundery20220429223804633</t>
-  </si>
-  <si>
-    <t>1827thecasagrandes20220429841822165</t>
-  </si>
-  <si>
-    <t>1827rainbowbutterflyunicornki20220429610441336</t>
-  </si>
-  <si>
-    <t>1827spongebobsquarepants20220429467698787</t>
-  </si>
-  <si>
-    <t>1827rainbowbutterflyunicornki20220429430176621</t>
-  </si>
-  <si>
-    <t>1827spongebobsquarepants20220428205146506</t>
-  </si>
-  <si>
-    <t>1827thecasagrandes20220203293072156</t>
-  </si>
-  <si>
-    <t>1827alvinnnandthechipmunks20220429691807004</t>
-  </si>
-  <si>
-    <t>1827thecasagrandes20220203576987129</t>
-  </si>
-  <si>
-    <t>1827theloudhouse20220203824110225</t>
-  </si>
-  <si>
-    <t>1827theloudhouse2022020396521574</t>
-  </si>
-  <si>
-    <t>1827spongebobsquarepants20220203810091014</t>
-  </si>
-  <si>
-    <t>1827alvinnnandthechipmunks20220203685628232</t>
-  </si>
-  <si>
-    <t>1827spongebobsquarepants20220203373252412</t>
-  </si>
-  <si>
-    <t>1827theloudhouse20220203759633445</t>
-  </si>
-  <si>
-    <t>1827alvinnnandthechipmunks20220203620984019</t>
-  </si>
-  <si>
-    <t>1827spongebobsquarepants20220203745214242</t>
-  </si>
-  <si>
-    <t>1827avatarthelastairbender20220203560690817</t>
-  </si>
-  <si>
-    <t>1827spongebobsquarepants20220203574405054</t>
-  </si>
-  <si>
-    <t>1827spongebobsquarepants20220203641904251</t>
-  </si>
-  <si>
-    <t>1827avatarthelastairbender20220203727548617</t>
-  </si>
-  <si>
-    <t>1827alvinnnandthechipmunks20220203386243387</t>
-  </si>
-  <si>
-    <t>1827spongebobsquarepants20220203177412230</t>
-  </si>
-  <si>
-    <t>1827theloudhouse20220203735373051</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+  <si>
+    <t>21haberbulteni20220504790313951</t>
+  </si>
+  <si>
+    <t>21spor2022050450785264</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220504786991989</t>
+  </si>
+  <si>
+    <t>21haberbulteni2022050482227474</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220504320069648</t>
+  </si>
+  <si>
+    <t>21havadurumu20220504632191128</t>
+  </si>
+  <si>
+    <t>21siyasiisler2022050455724129</t>
+  </si>
+  <si>
+    <t>21haberbulteni2022050494198404</t>
+  </si>
+  <si>
+    <t>21teknohayat20220504135225097</t>
+  </si>
+  <si>
+    <t>21spor20220504774079435</t>
+  </si>
+  <si>
+    <t>21sozvemuziktaverna20220504262109342</t>
+  </si>
+  <si>
+    <t>21dunyaninhaberi20220504790931050</t>
+  </si>
+  <si>
+    <t>21oaninhikayesi20220504186567101</t>
+  </si>
+  <si>
+    <t>21spor20220504246485207</t>
+  </si>
+  <si>
+    <t>21havadurumu20220504651954365</t>
+  </si>
+  <si>
+    <t>21macerasever20220504943233849</t>
+  </si>
+  <si>
+    <t>21tadituzuyerinde20220504391096498</t>
+  </si>
+  <si>
+    <t>21havadurumu20220504355820637</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220504914236470</t>
+  </si>
+  <si>
+    <t>21havadurumu20220504306598528</t>
+  </si>
+  <si>
+    <t>21havadurumu20220504561688895</t>
+  </si>
+  <si>
+    <t>21mesutyarilebugun20220504470685711</t>
+  </si>
+  <si>
+    <t>21havadurumu20220504830288747</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220504312939438</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220504934423761</t>
+  </si>
+  <si>
+    <t>21spor20220504595671920</t>
+  </si>
+  <si>
+    <t>21oaninhikayesi20220504349740501</t>
+  </si>
+  <si>
+    <t>21piyasaekrani20220504965058509</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220504896724253</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220504235162310</t>
+  </si>
+  <si>
+    <t>21havadurumu20220504220379953</t>
+  </si>
+  <si>
+    <t>21haberbulteni2022050472226793</t>
+  </si>
+  <si>
+    <t>21hayatinseninelinde20220504643969366</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220504995352292</t>
+  </si>
+  <si>
+    <t>21piyasaekrani20220504582040293</t>
+  </si>
+  <si>
+    <t>21havadurumu20220504616567496</t>
+  </si>
+  <si>
+    <t>21piyasaekrani20220504209759613</t>
+  </si>
+  <si>
+    <t>21havadurumu20220504212068826</t>
+  </si>
+  <si>
+    <t>21anahaberbulteni20220504101874332</t>
+  </si>
+  <si>
+    <t>21piyasaekrani2022050460672681</t>
+  </si>
+  <si>
+    <t>21oaninhikayesi20220504441118824</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220504504683174</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220504966012555</t>
+  </si>
+  <si>
+    <t>21siyasiisler20220504272536143</t>
+  </si>
+  <si>
+    <t>21havadurumu20220504421796190</t>
+  </si>
+  <si>
+    <t>21tadituzuyerinde20220504418906050</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220504418194019</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220504113393669</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220504685506517</t>
+  </si>
+  <si>
+    <t>21havadurumu20220504265039253</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220504151625358</t>
+  </si>
+  <si>
+    <t>21oaninhikayesi20220504181181564</t>
+  </si>
+  <si>
+    <t>21spor20220504164518392</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220504923479091</t>
+  </si>
+  <si>
+    <t>21havadurumu20220505774713177</t>
+  </si>
+  <si>
+    <t>21havadurumu20220505197347783</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220505950589571</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220505610473050</t>
+  </si>
+  <si>
+    <t>21teknohayat20220505597796854</t>
+  </si>
+  <si>
+    <t>21havadurumu20220505449210888</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220505563007318</t>
+  </si>
+  <si>
+    <t>21spor20220505914886678</t>
+  </si>
+  <si>
+    <t>21havadurumu20220505300703102</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220505846277671</t>
+  </si>
+  <si>
+    <t>21spor20220505591038316</t>
+  </si>
+  <si>
+    <t>21yakinplan20220505442287344</t>
+  </si>
+  <si>
+    <t>21tadituzuyerinde20220505657262330</t>
+  </si>
+  <si>
+    <t>21spor20220505739524411</t>
+  </si>
+  <si>
+    <t>21dunyaninhaberi20220505628427091</t>
+  </si>
+  <si>
+    <t>21macerasever20220505121444509</t>
+  </si>
+  <si>
+    <t>21haberbulteni2022050511976225</t>
+  </si>
+  <si>
+    <t>21oaninhikayesi20220505158366501</t>
+  </si>
+  <si>
+    <t>21havadurumu20220505437076174</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220505331490373</t>
+  </si>
+  <si>
+    <t>21spor20220505779155808</t>
+  </si>
+  <si>
+    <t>21oaninhikayesi20220505443696531</t>
+  </si>
+  <si>
+    <t>21sozvemuziktaverna20220505782588304</t>
+  </si>
+  <si>
+    <t>21hayatinseninelinde20220505268016411</t>
+  </si>
+  <si>
+    <t>21piyasaekrani20220505712483050</t>
+  </si>
+  <si>
+    <t>21mesutyarilebugun20220505316464200</t>
+  </si>
+  <si>
+    <t>21oaninhikayesi20220505834874444</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220505697912899</t>
+  </si>
+  <si>
+    <t>21piyasaekrani20220505125877316</t>
+  </si>
+  <si>
+    <t>21havadurumu20220505108051659</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220505214390367</t>
+  </si>
+  <si>
+    <t>21hayatinseninelinde20220505816120671</t>
+  </si>
+  <si>
+    <t>21oaninhikayesi20220505923281846</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220505455713839</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220505796785744</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220505664387340</t>
+  </si>
+  <si>
+    <t>21haberbulteni2022050595851719</t>
+  </si>
+  <si>
+    <t>21anahaberbulteni20220505928131014</t>
+  </si>
+  <si>
+    <t>21tadituzuyerinde20220505682419416</t>
+  </si>
+  <si>
+    <t>21havadurumu20220505900708043</t>
+  </si>
+  <si>
+    <t>21piyasaekrani20220505633558364</t>
+  </si>
+  <si>
+    <t>21spor20220505663966361</t>
+  </si>
+  <si>
+    <t>21haberbulteni2022050545963057</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220505306516307</t>
+  </si>
+  <si>
+    <t>21hayatinseninelinde20220505438850796</t>
+  </si>
+  <si>
+    <t>21havadurumu20220505480512919</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220505919351471</t>
+  </si>
+  <si>
+    <t>21havadurumu20220505345472099</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220505118326442</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220505373513898</t>
+  </si>
+  <si>
+    <t>21haberbulteni2022050569564378</t>
+  </si>
+  <si>
+    <t>21havadurumu20220505956762655</t>
+  </si>
+  <si>
+    <t>21havadurumu20220505310734661</t>
+  </si>
+  <si>
+    <t>21piyasaekrani20220505183166205</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220506533354158</t>
+  </si>
+  <si>
+    <t>21paradurumu20220506386981738</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220506458917229</t>
+  </si>
+  <si>
+    <t>21dunyaninhaberi20220506337541882</t>
+  </si>
+  <si>
+    <t>21havadurumu20220506424751115</t>
+  </si>
+  <si>
+    <t>21yakinplan20220506110461773</t>
+  </si>
+  <si>
+    <t>21havadurumu2022050649613256</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220506665436177</t>
+  </si>
+  <si>
+    <t>21spor20220506242748019</t>
+  </si>
+  <si>
+    <t>21havadurumu20220506287176184</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220506696988834</t>
+  </si>
+  <si>
+    <t>21oaninhikayesi20220506954154918</t>
+  </si>
+  <si>
+    <t>21havadurumu20220506286770249</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220506910174990</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220506678493583</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220506996742880</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220506961281309</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220506308570951</t>
+  </si>
+  <si>
+    <t>21oaninhikayesi20220506689344050</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220506341071559</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220506702785327</t>
+  </si>
+  <si>
+    <t>21tadituzuyerinde20220506707339250</t>
+  </si>
+  <si>
+    <t>21havadurumu20220506841699858</t>
+  </si>
+  <si>
+    <t>21mesutyarilebugun20220506870861641</t>
+  </si>
+  <si>
+    <t>21spor2022050631929687</t>
+  </si>
+  <si>
+    <t>21havadurumu20220506751344485</t>
+  </si>
+  <si>
+    <t>21spor20220506547233531</t>
+  </si>
+  <si>
+    <t>21piyasaekrani20220506631811427</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220506146073914</t>
+  </si>
+  <si>
+    <t>21havadurumu20220506628690997</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220506259585503</t>
+  </si>
+  <si>
+    <t>21piyasaekrani20220506339486107</t>
+  </si>
+  <si>
+    <t>21pasaport20220506719775723</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220506724762666</t>
+  </si>
+  <si>
+    <t>21yakinplan20220506500065569</t>
+  </si>
+  <si>
+    <t>21piyasaekrani20220506700398916</t>
+  </si>
+  <si>
+    <t>21piyasaekrani20220506675384783</t>
+  </si>
+  <si>
+    <t>21tadituzuyerinde20220506753893570</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220506781576257</t>
+  </si>
+  <si>
+    <t>21hayatinseninelinde20220506109961269</t>
+  </si>
+  <si>
+    <t>21anahaberbulteni20220506196710931</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220506760518960</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220506192681280</t>
+  </si>
+  <si>
+    <t>21spor20220506813923518</t>
+  </si>
+  <si>
+    <t>21spor20220506278747034</t>
+  </si>
+  <si>
+    <t>21havadurumu20220506313035321</t>
+  </si>
+  <si>
+    <t>21havadurumu20220506286557976</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220506492586955</t>
+  </si>
+  <si>
+    <t>21havadurumu20220506283350532</t>
+  </si>
+  <si>
+    <t>21havadurumu20220506871332157</t>
+  </si>
+  <si>
+    <t>21bakis20220507360747035</t>
+  </si>
+  <si>
+    <t>21spor20220507240339547</t>
+  </si>
+  <si>
+    <t>21gecegunduz20220507586996572</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220507141088765</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220507172861584</t>
+  </si>
+  <si>
+    <t>21havadurumu2022050742749002</t>
+  </si>
+  <si>
+    <t>21halkinsanati20220507656227463</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220507680253748</t>
+  </si>
+  <si>
+    <t>21anahaberbulteni20220507479344315</t>
+  </si>
+  <si>
+    <t>21havadurumu20220507421242898</t>
+  </si>
+  <si>
+    <t>21havadurumu20220507263014629</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220507904358400</t>
+  </si>
+  <si>
+    <t>21spor20220507205160673</t>
+  </si>
+  <si>
+    <t>21havadurumu20220507290260018</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220507363817068</t>
+  </si>
+  <si>
+    <t>21spor20220507625427341</t>
+  </si>
+  <si>
+    <t>21spor20220507468165696</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220507505847065</t>
+  </si>
+  <si>
+    <t>21havadurumu2022050780187237</t>
+  </si>
+  <si>
+    <t>21havadurumu20220507258146063</t>
+  </si>
+  <si>
+    <t>21havadurumu20220507301907600</t>
+  </si>
+  <si>
+    <t>21lifestyle20220507107207661</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220507615006175</t>
+  </si>
+  <si>
+    <t>21havadurumu20220507625069979</t>
+  </si>
+  <si>
+    <t>21havadurumu2022050717587391</t>
+  </si>
+  <si>
+    <t>21havadurumu20220507889691396</t>
+  </si>
+  <si>
+    <t>21spor20220507662131571</t>
+  </si>
+  <si>
+    <t>21lafaramizda20220507631634325</t>
+  </si>
+  <si>
+    <t>21teknohayat20220507474830096</t>
+  </si>
+  <si>
+    <t>21hayatinseninelinde20220507247044966</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220507893804468</t>
+  </si>
+  <si>
+    <t>21havadurumu20220507825672062</t>
+  </si>
+  <si>
+    <t>21nfutboldevrearasi20220507656760537</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220507693776936</t>
+  </si>
+  <si>
+    <t>21haberbulteni202205072497846</t>
+  </si>
+  <si>
+    <t>21spor20220507241138022</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220507954536670</t>
+  </si>
+  <si>
+    <t>21havadurumu20220507832108918</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220507890971786</t>
+  </si>
+  <si>
+    <t>21haberbulteni2022050753589873</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220507259086910</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220507437123611</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220507431565166</t>
+  </si>
+  <si>
+    <t>21havadurumu20220507205336416</t>
+  </si>
+  <si>
+    <t>21haberbulteni2022050771623136</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220507290148988</t>
+  </si>
+  <si>
+    <t>21havadurumu20220507145100029</t>
+  </si>
+  <si>
+    <t>21havadurumu20220507701550254</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220507803389514</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220507370425297</t>
+  </si>
+  <si>
+    <t>21havadurumu20220507497299343</t>
+  </si>
+  <si>
+    <t>21nfutbol20220507862010903</t>
+  </si>
+  <si>
+    <t>21havadurumu20220507796166897</t>
+  </si>
+  <si>
+    <t>21lafaramizda20220507892743687</t>
+  </si>
+  <si>
+    <t>21havadurumu20220507593890044</t>
+  </si>
+  <si>
+    <t>21haberbulteni20220507475659028</t>
   </si>
 </sst>
 </file>
@@ -192,9 +702,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,235 +984,1085 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:A214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A44"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="A214" sqref="A214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="60.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
